--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -154,6 +154,34 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,8 +193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,69 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,14 +239,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +270,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -300,6 +292,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,26 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +530,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,20 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1627,8 +1627,8 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:2">

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -154,6 +154,28 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,15 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,14 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -217,29 +233,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,22 +256,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -278,7 +263,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -294,12 +279,27 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,25 +310,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,13 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,139 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,11 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,26 +551,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +586,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1235,19 +1235,19 @@
         <v>17</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -1318,19 +1318,19 @@
         <v>32</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -1401,19 +1401,19 @@
         <v>21</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Q4">
         <v>30</v>
@@ -1484,19 +1484,19 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>14</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Q6">
         <v>40</v>
@@ -1627,7 +1627,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,16 +157,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,23 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +197,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,10 +232,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,22 +273,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -300,6 +293,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,13 +310,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,169 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,21 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +552,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,15 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,16 +609,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +627,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1220,34 +1220,34 @@
         <v>40</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>20</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O2">
         <v>40</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -1303,34 +1303,34 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L3">
         <v>60</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>20</v>
       </c>
       <c r="P3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q3">
         <v>50</v>
@@ -1386,7 +1386,7 @@
         <v>40</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1395,22 +1395,22 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>20</v>
       </c>
       <c r="O4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P4">
         <v>60</v>
@@ -1469,34 +1469,34 @@
         <v>40</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>20</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="O5">
         <v>60</v>
       </c>
-      <c r="N5">
-        <v>40</v>
-      </c>
-      <c r="O5">
-        <v>40</v>
-      </c>
       <c r="P5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1552,34 +1552,34 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <v>40</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>40</v>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -144,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,9 +171,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,9 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,17 +216,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,18 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,18 +254,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,13 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,8 +277,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +519,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,6 +543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -545,9 +569,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,32 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1235,10 +1235,10 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N2">
         <v>70</v>
@@ -1247,7 +1247,7 @@
         <v>40</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -1401,19 +1401,19 @@
         <v>23</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q4">
         <v>30</v>
@@ -1484,16 +1484,16 @@
         <v>28</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
         <v>50</v>
-      </c>
-      <c r="N5">
-        <v>50</v>
-      </c>
-      <c r="O5">
-        <v>60</v>
       </c>
       <c r="P5">
         <v>70</v>
@@ -1567,16 +1567,16 @@
         <v>15</v>
       </c>
       <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
         <v>40</v>
       </c>
-      <c r="M6">
-        <v>50</v>
-      </c>
       <c r="N6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P6">
         <v>50</v>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -144,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,14 +158,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +219,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -187,51 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,26 +256,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,15 +273,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,56 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -601,6 +590,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,28 +627,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,97 +657,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,16 +1238,16 @@
         <v>70</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q2">
         <v>100</v>
@@ -1321,7 +1321,7 @@
         <v>60</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>40</v>
@@ -1404,16 +1404,16 @@
         <v>60</v>
       </c>
       <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
         <v>20</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
       <c r="O4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>30</v>
@@ -1487,16 +1487,16 @@
         <v>80</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>30</v>
       </c>
       <c r="O5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>30</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O6">
         <v>20</v>
       </c>
       <c r="P6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q6">
         <v>40</v>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -143,8 +143,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -164,19 +164,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,24 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -233,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,10 +239,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,25 +255,34 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,6 +292,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,45 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,6 +528,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -590,17 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,7 +609,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,7 +618,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,124 +630,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1226,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>18</v>
@@ -1552,13 +1552,13 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>12</v>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,22 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,43 +167,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +180,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +204,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +241,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,28 +294,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,79 +310,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,103 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,9 +536,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,50 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,6 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,145 +609,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>23</v>
@@ -1552,34 +1552,34 @@
         <v>40</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>50</v>
       </c>
       <c r="N6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>40</v>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -123,19 +123,37 @@
     <t>Text</t>
   </si>
   <si>
+    <t>SubName</t>
+  </si>
+  <si>
     <t>ヘカテー</t>
   </si>
   <si>
+    <t>【豊穣の月女神】</t>
+  </si>
+  <si>
     <t>キャロライン</t>
   </si>
   <si>
+    <t>【ワイヤープリンセス】</t>
+  </si>
+  <si>
     <t>アリス</t>
   </si>
   <si>
+    <t>【不思議の国の守護神】</t>
+  </si>
+  <si>
     <t>フリル</t>
   </si>
   <si>
+    <t>【イノセンススマイル】</t>
+  </si>
+  <si>
     <t>ニュクス</t>
+  </si>
+  <si>
+    <t>【Determination2Die】</t>
   </si>
 </sst>
 </file>
@@ -145,8 +163,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,11 +175,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,33 +220,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,31 +237,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,44 +281,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,13 +328,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,37 +454,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,67 +490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,55 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +522,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -565,6 +568,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,24 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,16 +627,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,124 +648,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1126,7 @@
   <sheetPr/>
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1946,60 +1964,78 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7660"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -114,6 +114,12 @@
     <t>0005</t>
   </si>
   <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
   </si>
   <si>
     <t>【Determination2Die】</t>
+  </si>
+  <si>
+    <t>【アメージングスター】</t>
+  </si>
+  <si>
+    <t>【ライブフォーリナー】</t>
   </si>
 </sst>
 </file>
@@ -161,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,30 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -220,6 +210,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,11 +234,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,8 +271,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +311,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -281,39 +318,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,20 +536,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,30 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,7 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +596,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,145 +639,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,13 +1136,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1631,6 +1643,172 @@
       </c>
       <c r="AA6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>29</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>50</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>-8</v>
+      </c>
+      <c r="X7">
+        <v>0.9</v>
+      </c>
+      <c r="Y7">
+        <v>80</v>
+      </c>
+      <c r="Z7">
+        <v>64</v>
+      </c>
+      <c r="AA7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>30</v>
+      </c>
+      <c r="O8">
+        <v>40</v>
+      </c>
+      <c r="P8">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>60</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>-12</v>
+      </c>
+      <c r="X8">
+        <v>0.88</v>
+      </c>
+      <c r="Y8">
+        <v>-16</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1643,20 +1821,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1953,6 +2131,118 @@
       </c>
       <c r="B38">
         <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -1964,23 +2254,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1988,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1999,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2010,10 +2300,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2021,10 +2311,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2032,10 +2322,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,60 +184,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,15 +195,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,22 +241,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -295,9 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +262,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -340,31 +340,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,151 +466,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,9 +536,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +571,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,57 +627,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,145 +639,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7"/>
@@ -1665,34 +1665,34 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>50</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q7">
         <v>30</v>
@@ -1748,34 +1748,34 @@
         <v>40</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
       <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
         <v>30</v>
       </c>
-      <c r="O8">
-        <v>40</v>
-      </c>
       <c r="P8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1823,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2170,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2">

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
     <t>【Determination2Die】</t>
   </si>
   <si>
-    <t>【アメージングスター】</t>
+    <t>【鏡の国の氷映譚】</t>
   </si>
   <si>
     <t>【ライブフォーリナー】</t>
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,23 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,9 +211,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,9 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,10 +255,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,14 +308,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -294,24 +317,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +330,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,55 +340,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,127 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +534,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -584,17 +588,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,9 +623,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,145 +639,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,8 +1823,8 @@
   <sheetPr/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2256,8 +2256,8 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,9 +187,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,26 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,21 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -264,37 +248,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +278,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -330,6 +323,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,43 +340,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,139 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,26 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,15 +584,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +605,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -639,145 +639,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2257,7 +2257,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -114,6 +114,15 @@
     <t>0005</t>
   </si>
   <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
     <t>0013</t>
   </si>
   <si>
@@ -160,6 +169,21 @@
   </si>
   <si>
     <t>【Determination2Die】</t>
+  </si>
+  <si>
+    <t>フェリオ</t>
+  </si>
+  <si>
+    <t>【高速天翔】</t>
+  </si>
+  <si>
+    <t>メリー</t>
+  </si>
+  <si>
+    <t>【Ten-Shi】</t>
+  </si>
+  <si>
+    <t>【鳳凰演舞】</t>
   </si>
   <si>
     <t>【鏡の国の氷映譚】</t>
@@ -173,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,9 +211,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,52 +287,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,17 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,11 +340,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,20 +354,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,31 +364,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,150 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +555,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,21 +589,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -575,15 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +614,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,145 +663,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,13 +1160,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1647,13 +1671,13 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
@@ -1665,78 +1689,78 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M7">
         <v>50</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>90</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="R7">
         <v>100</v>
       </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>30</v>
-      </c>
-      <c r="R7">
+      <c r="S7">
+        <v>20</v>
+      </c>
+      <c r="T7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>100</v>
-      </c>
-      <c r="T7">
-        <v>50</v>
-      </c>
       <c r="U7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V7">
+        <v>22</v>
+      </c>
+      <c r="W7">
+        <v>28</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>-48</v>
+      </c>
+      <c r="Z7">
         <v>16</v>
       </c>
-      <c r="W7">
-        <v>-8</v>
-      </c>
-      <c r="X7">
-        <v>0.9</v>
-      </c>
-      <c r="Y7">
-        <v>80</v>
-      </c>
-      <c r="Z7">
-        <v>64</v>
-      </c>
       <c r="AA7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -1748,19 +1772,19 @@
         <v>40</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>60</v>
@@ -1769,45 +1793,294 @@
         <v>50</v>
       </c>
       <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>90</v>
+      </c>
+      <c r="Q8">
         <v>50</v>
       </c>
-      <c r="O8">
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>20</v>
+      </c>
+      <c r="V8">
+        <v>22</v>
+      </c>
+      <c r="W8">
+        <v>28</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>160</v>
+      </c>
+      <c r="AA8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
+      <c r="O9">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>50</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>40</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>50</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>-16</v>
+      </c>
+      <c r="X9">
+        <v>0.78</v>
+      </c>
+      <c r="Y9">
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <v>120</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
         <v>30</v>
       </c>
-      <c r="P8">
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>50</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>-8</v>
+      </c>
+      <c r="X10">
+        <v>0.9</v>
+      </c>
+      <c r="Y10">
+        <v>80</v>
+      </c>
+      <c r="Z10">
+        <v>64</v>
+      </c>
+      <c r="AA10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+      <c r="P11">
         <v>70</v>
       </c>
-      <c r="Q8">
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>40</v>
-      </c>
-      <c r="S8">
+      <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11">
         <v>60</v>
       </c>
-      <c r="T8">
+      <c r="T11">
         <v>100</v>
       </c>
-      <c r="U8">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="V11">
         <v>20</v>
       </c>
-      <c r="W8">
+      <c r="W11">
         <v>-12</v>
       </c>
-      <c r="X8">
+      <c r="X11">
         <v>0.88</v>
       </c>
-      <c r="Y8">
+      <c r="Y11">
         <v>-16</v>
       </c>
-      <c r="Z8">
-        <v>40</v>
-      </c>
-      <c r="AA8">
+      <c r="Z11">
+        <v>40</v>
+      </c>
+      <c r="AA11">
         <v>0.8</v>
       </c>
     </row>
@@ -1821,20 +2094,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2135,7 +2408,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>11</v>
@@ -2143,7 +2416,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>21</v>
@@ -2151,7 +2424,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>31</v>
@@ -2159,39 +2432,39 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>301</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>322</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>313</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -2199,7 +2472,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>21</v>
@@ -2207,7 +2480,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>31</v>
@@ -2215,33 +2488,201 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>401</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>422</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>413</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
         <v>14</v>
       </c>
-      <c r="B52">
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
         <v>414</v>
       </c>
     </row>
@@ -2254,23 +2695,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2278,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2289,10 +2730,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2300,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2311,10 +2752,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2322,32 +2763,65 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Actors.xlsx
+++ b/Assets/Resources/Data/Actors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Actors" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -211,6 +211,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -218,10 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,31 +235,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +265,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -295,7 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,27 +316,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,16 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,19 +364,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,163 +472,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +555,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +589,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,44 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -663,145 +663,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1689,49 +1689,49 @@
         <v>40</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>50</v>
       </c>
       <c r="N7">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7">
         <v>40</v>
       </c>
-      <c r="O7">
-        <v>20</v>
-      </c>
-      <c r="P7">
-        <v>90</v>
-      </c>
       <c r="Q7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>100</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="V7">
         <v>22</v>
@@ -2094,10 +2094,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="B44">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2459,15 +2459,15 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>501</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="B50">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2515,15 +2515,15 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2531,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="B55">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="B56">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2571,15 +2571,15 @@
         <v>11</v>
       </c>
       <c r="B59">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>13</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="B63">
-        <v>301</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>13</v>
       </c>
       <c r="B64">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2619,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B65">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2627,15 +2627,15 @@
         <v>13</v>
       </c>
       <c r="B66">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2659,7 +2659,7 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>401</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2667,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2675,7 +2675,7 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2683,6 +2683,14 @@
         <v>14</v>
       </c>
       <c r="B73">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74">
         <v>414</v>
       </c>
     </row>
